--- a/playbook_rules.xlsx
+++ b/playbook_rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ranga\poc\expert_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39AE82-A112-48E3-BC3E-676D919D0FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8EE228-5313-408E-BB2B-32C2FE653BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -36,18 +36,12 @@
     <t>Action</t>
   </si>
   <si>
-    <t>End</t>
-  </si>
-  <si>
     <t>Is the controller in Automatic Local mode with the proper setpoint?</t>
   </si>
   <si>
     <t>Place the controller in Automatic mode with the proper setpoint.</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Is the primary controller in Auto mode?</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
   </si>
   <si>
     <t>Have an instrumentation technician inspect and repair the valve.</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Is the control valve operating within a controlling range of 20-80%?</t>
@@ -413,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,10 +416,9 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="52.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,24 +426,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -462,18 +449,15 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -482,18 +466,15 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
@@ -502,18 +483,15 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
@@ -522,16 +500,13 @@
         <v>6</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
@@ -540,18 +515,15 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -560,10 +532,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
